--- a/natmiOut/OldD4/LR-pairs_lrc2p/Vtn-Itgb6.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Vtn-Itgb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>Itgb6</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +531,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.64593349569733</v>
+        <v>6.201571333333333</v>
       </c>
       <c r="H2">
-        <v>5.64593349569733</v>
+        <v>18.604714</v>
       </c>
       <c r="I2">
-        <v>0.05923501724226955</v>
+        <v>0.05221490529364391</v>
       </c>
       <c r="J2">
-        <v>0.05923501724226955</v>
+        <v>0.07406232529850043</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>4.11959609041441</v>
+        <v>0.156219</v>
       </c>
       <c r="N2">
-        <v>4.11959609041441</v>
+        <v>0.468657</v>
       </c>
       <c r="O2">
-        <v>0.8649637054135539</v>
+        <v>0.02370067533399361</v>
       </c>
       <c r="P2">
-        <v>0.8649637054135539</v>
+        <v>0.02639406479478576</v>
       </c>
       <c r="Q2">
-        <v>23.25896555561448</v>
+        <v>0.9688032721219999</v>
       </c>
       <c r="R2">
-        <v>23.25896555561448</v>
+        <v>8.719229449097998</v>
       </c>
       <c r="S2">
-        <v>0.05123614000410923</v>
+        <v>0.001237528517959879</v>
       </c>
       <c r="T2">
-        <v>0.05123614000410923</v>
+        <v>0.001954805812781121</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +593,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.64593349569733</v>
+        <v>6.201571333333333</v>
       </c>
       <c r="H3">
-        <v>5.64593349569733</v>
+        <v>18.604714</v>
       </c>
       <c r="I3">
-        <v>0.05923501724226955</v>
+        <v>0.05221490529364391</v>
       </c>
       <c r="J3">
-        <v>0.05923501724226955</v>
+        <v>0.07406232529850043</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.643142582469859</v>
+        <v>4.379107333333333</v>
       </c>
       <c r="N3">
-        <v>0.643142582469859</v>
+        <v>13.137322</v>
       </c>
       <c r="O3">
-        <v>0.135036294586446</v>
+        <v>0.6643737391741329</v>
       </c>
       <c r="P3">
-        <v>0.135036294586446</v>
+        <v>0.7398744243614509</v>
       </c>
       <c r="Q3">
-        <v>3.631140248875859</v>
+        <v>27.15734650398977</v>
       </c>
       <c r="R3">
-        <v>3.631140248875859</v>
+        <v>244.416118535908</v>
       </c>
       <c r="S3">
-        <v>0.007998877238160319</v>
+        <v>0.03469021187056143</v>
       </c>
       <c r="T3">
-        <v>0.007998877238160319</v>
+        <v>0.05479682029709853</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,60 +655,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.62253671382392</v>
+        <v>6.201571333333333</v>
       </c>
       <c r="H4">
-        <v>6.62253671382392</v>
+        <v>18.604714</v>
       </c>
       <c r="I4">
-        <v>0.0694811720205131</v>
+        <v>0.05221490529364391</v>
       </c>
       <c r="J4">
-        <v>0.0694811720205131</v>
+        <v>0.07406232529850043</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>4.11959609041441</v>
+        <v>0.015348</v>
       </c>
       <c r="N4">
-        <v>4.11959609041441</v>
+        <v>0.046044</v>
       </c>
       <c r="O4">
-        <v>0.8649637054135539</v>
+        <v>0.00232851295313716</v>
       </c>
       <c r="P4">
-        <v>0.8649637054135539</v>
+        <v>0.00259312955831475</v>
       </c>
       <c r="Q4">
-        <v>27.28217635489491</v>
+        <v>0.09518171682399999</v>
       </c>
       <c r="R4">
-        <v>27.28217635489491</v>
+        <v>0.8566354514159999</v>
       </c>
       <c r="S4">
-        <v>0.06009869200733956</v>
+        <v>0.0001215830833230799</v>
       </c>
       <c r="T4">
-        <v>0.06009869200733956</v>
+        <v>0.0001920532048890637</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -711,60 +717,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.62253671382392</v>
+        <v>6.201571333333333</v>
       </c>
       <c r="H5">
-        <v>6.62253671382392</v>
+        <v>18.604714</v>
       </c>
       <c r="I5">
-        <v>0.0694811720205131</v>
+        <v>0.05221490529364391</v>
       </c>
       <c r="J5">
-        <v>0.0694811720205131</v>
+        <v>0.07406232529850043</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.643142582469859</v>
+        <v>0.02281433333333334</v>
       </c>
       <c r="N5">
-        <v>0.643142582469859</v>
+        <v>0.068443</v>
       </c>
       <c r="O5">
-        <v>0.135036294586446</v>
+        <v>0.003461263401345813</v>
       </c>
       <c r="P5">
-        <v>0.135036294586446</v>
+        <v>0.003854607904607254</v>
       </c>
       <c r="Q5">
-        <v>4.25923536463017</v>
+        <v>0.1414847155891111</v>
       </c>
       <c r="R5">
-        <v>4.25923536463017</v>
+        <v>1.273362440302</v>
       </c>
       <c r="S5">
-        <v>0.009382480013173537</v>
+        <v>0.0001807295406976274</v>
       </c>
       <c r="T5">
-        <v>0.009382480013173537</v>
+        <v>0.0002854812245291936</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +779,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>83.0456490150182</v>
+        <v>6.201571333333333</v>
       </c>
       <c r="H6">
-        <v>83.0456490150182</v>
+        <v>18.604714</v>
       </c>
       <c r="I6">
-        <v>0.8712838107372173</v>
+        <v>0.05221490529364391</v>
       </c>
       <c r="J6">
-        <v>0.8712838107372173</v>
+        <v>0.07406232529850043</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.11959609041441</v>
+        <v>2.0178425</v>
       </c>
       <c r="N6">
-        <v>4.11959609041441</v>
+        <v>4.035685</v>
       </c>
       <c r="O6">
-        <v>0.8649637054135539</v>
+        <v>0.3061358091373905</v>
       </c>
       <c r="P6">
-        <v>0.8649637054135539</v>
+        <v>0.2272837733808414</v>
       </c>
       <c r="Q6">
-        <v>342.1145310081963</v>
+        <v>12.51379420318167</v>
       </c>
       <c r="R6">
-        <v>342.1145310081963</v>
+        <v>75.08276521908999</v>
       </c>
       <c r="S6">
-        <v>0.753628873402105</v>
+        <v>0.01598485228110189</v>
       </c>
       <c r="T6">
-        <v>0.753628873402105</v>
+        <v>0.01683316475920253</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,55 +841,613 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>7.461641333333333</v>
+      </c>
+      <c r="H7">
+        <v>22.384924</v>
+      </c>
+      <c r="I7">
+        <v>0.06282422221945559</v>
+      </c>
+      <c r="J7">
+        <v>0.0891107233935555</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.156219</v>
+      </c>
+      <c r="N7">
+        <v>0.468657</v>
+      </c>
+      <c r="O7">
+        <v>0.02370067533399361</v>
+      </c>
+      <c r="P7">
+        <v>0.02639406479478576</v>
+      </c>
+      <c r="Q7">
+        <v>1.165650147452</v>
+      </c>
+      <c r="R7">
+        <v>10.490851327068</v>
+      </c>
+      <c r="S7">
+        <v>0.001488976493933985</v>
+      </c>
+      <c r="T7">
+        <v>0.002351994207159735</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>7.461641333333333</v>
+      </c>
+      <c r="H8">
+        <v>22.384924</v>
+      </c>
+      <c r="I8">
+        <v>0.06282422221945559</v>
+      </c>
+      <c r="J8">
+        <v>0.0891107233935555</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>4.379107333333333</v>
+      </c>
+      <c r="N8">
+        <v>13.137322</v>
+      </c>
+      <c r="O8">
+        <v>0.6643737391741329</v>
+      </c>
+      <c r="P8">
+        <v>0.7398744243614509</v>
+      </c>
+      <c r="Q8">
+        <v>32.67532828150311</v>
+      </c>
+      <c r="R8">
+        <v>294.077954533528</v>
+      </c>
+      <c r="S8">
+        <v>0.04173876342664636</v>
+      </c>
+      <c r="T8">
+        <v>0.06593074517523935</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>7.461641333333333</v>
+      </c>
+      <c r="H9">
+        <v>22.384924</v>
+      </c>
+      <c r="I9">
+        <v>0.06282422221945559</v>
+      </c>
+      <c r="J9">
+        <v>0.0891107233935555</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.015348</v>
+      </c>
+      <c r="N9">
+        <v>0.046044</v>
+      </c>
+      <c r="O9">
+        <v>0.00232851295313716</v>
+      </c>
+      <c r="P9">
+        <v>0.00259312955831475</v>
+      </c>
+      <c r="Q9">
+        <v>0.114521271184</v>
+      </c>
+      <c r="R9">
+        <v>1.030691440656</v>
+      </c>
+      <c r="S9">
+        <v>0.0001462870152087697</v>
+      </c>
+      <c r="T9">
+        <v>0.0002310756507946384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>7.461641333333333</v>
+      </c>
+      <c r="H10">
+        <v>22.384924</v>
+      </c>
+      <c r="I10">
+        <v>0.06282422221945559</v>
+      </c>
+      <c r="J10">
+        <v>0.0891107233935555</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.02281433333333334</v>
+      </c>
+      <c r="N10">
+        <v>0.068443</v>
+      </c>
+      <c r="O10">
+        <v>0.003461263401345813</v>
+      </c>
+      <c r="P10">
+        <v>0.003854607904607254</v>
+      </c>
+      <c r="Q10">
+        <v>0.1702323725924444</v>
+      </c>
+      <c r="R10">
+        <v>1.532091353332</v>
+      </c>
+      <c r="S10">
+        <v>0.0002174511810862181</v>
+      </c>
+      <c r="T10">
+        <v>0.0003434868987780696</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>83.0456490150182</v>
-      </c>
-      <c r="H7">
-        <v>83.0456490150182</v>
-      </c>
-      <c r="I7">
-        <v>0.8712838107372173</v>
-      </c>
-      <c r="J7">
-        <v>0.8712838107372173</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.643142582469859</v>
-      </c>
-      <c r="N7">
-        <v>0.643142582469859</v>
-      </c>
-      <c r="O7">
-        <v>0.135036294586446</v>
-      </c>
-      <c r="P7">
-        <v>0.135036294586446</v>
-      </c>
-      <c r="Q7">
-        <v>53.41019317040431</v>
-      </c>
-      <c r="R7">
-        <v>53.41019317040431</v>
-      </c>
-      <c r="S7">
-        <v>0.1176549373351121</v>
-      </c>
-      <c r="T7">
-        <v>0.1176549373351121</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>7.461641333333333</v>
+      </c>
+      <c r="H11">
+        <v>22.384924</v>
+      </c>
+      <c r="I11">
+        <v>0.06282422221945559</v>
+      </c>
+      <c r="J11">
+        <v>0.0891107233935555</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.0178425</v>
+      </c>
+      <c r="N11">
+        <v>4.035685</v>
+      </c>
+      <c r="O11">
+        <v>0.3061358091373905</v>
+      </c>
+      <c r="P11">
+        <v>0.2272837733808414</v>
+      </c>
+      <c r="Q11">
+        <v>15.05641700215667</v>
+      </c>
+      <c r="R11">
+        <v>90.33850201294</v>
+      </c>
+      <c r="S11">
+        <v>0.01923274410258026</v>
+      </c>
+      <c r="T11">
+        <v>0.02025342146158371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>105.106922</v>
+      </c>
+      <c r="H12">
+        <v>210.213844</v>
+      </c>
+      <c r="I12">
+        <v>0.8849608724869005</v>
+      </c>
+      <c r="J12">
+        <v>0.836826951307944</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.156219</v>
+      </c>
+      <c r="N12">
+        <v>0.468657</v>
+      </c>
+      <c r="O12">
+        <v>0.02370067533399361</v>
+      </c>
+      <c r="P12">
+        <v>0.02639406479478576</v>
+      </c>
+      <c r="Q12">
+        <v>16.419698247918</v>
+      </c>
+      <c r="R12">
+        <v>98.518189487508</v>
+      </c>
+      <c r="S12">
+        <v>0.02097417032209975</v>
+      </c>
+      <c r="T12">
+        <v>0.02208726477484491</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>105.106922</v>
+      </c>
+      <c r="H13">
+        <v>210.213844</v>
+      </c>
+      <c r="I13">
+        <v>0.8849608724869005</v>
+      </c>
+      <c r="J13">
+        <v>0.836826951307944</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.379107333333333</v>
+      </c>
+      <c r="N13">
+        <v>13.137322</v>
+      </c>
+      <c r="O13">
+        <v>0.6643737391741329</v>
+      </c>
+      <c r="P13">
+        <v>0.7398744243614509</v>
+      </c>
+      <c r="Q13">
+        <v>460.2744929142946</v>
+      </c>
+      <c r="R13">
+        <v>2761.646957485768</v>
+      </c>
+      <c r="S13">
+        <v>0.5879447638769251</v>
+      </c>
+      <c r="T13">
+        <v>0.619146858889113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>105.106922</v>
+      </c>
+      <c r="H14">
+        <v>210.213844</v>
+      </c>
+      <c r="I14">
+        <v>0.8849608724869005</v>
+      </c>
+      <c r="J14">
+        <v>0.836826951307944</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.015348</v>
+      </c>
+      <c r="N14">
+        <v>0.046044</v>
+      </c>
+      <c r="O14">
+        <v>0.00232851295313716</v>
+      </c>
+      <c r="P14">
+        <v>0.00259312955831475</v>
+      </c>
+      <c r="Q14">
+        <v>1.613181038856</v>
+      </c>
+      <c r="R14">
+        <v>9.679086233135999</v>
+      </c>
+      <c r="S14">
+        <v>0.00206064285460531</v>
+      </c>
+      <c r="T14">
+        <v>0.002170000702631048</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>105.106922</v>
+      </c>
+      <c r="H15">
+        <v>210.213844</v>
+      </c>
+      <c r="I15">
+        <v>0.8849608724869005</v>
+      </c>
+      <c r="J15">
+        <v>0.836826951307944</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.02281433333333334</v>
+      </c>
+      <c r="N15">
+        <v>0.068443</v>
+      </c>
+      <c r="O15">
+        <v>0.003461263401345813</v>
+      </c>
+      <c r="P15">
+        <v>0.003854607904607254</v>
+      </c>
+      <c r="Q15">
+        <v>2.397944354148667</v>
+      </c>
+      <c r="R15">
+        <v>14.387666124892</v>
+      </c>
+      <c r="S15">
+        <v>0.003063082679561968</v>
+      </c>
+      <c r="T15">
+        <v>0.003225639781299991</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>105.106922</v>
+      </c>
+      <c r="H16">
+        <v>210.213844</v>
+      </c>
+      <c r="I16">
+        <v>0.8849608724869005</v>
+      </c>
+      <c r="J16">
+        <v>0.836826951307944</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.0178425</v>
+      </c>
+      <c r="N16">
+        <v>4.035685</v>
+      </c>
+      <c r="O16">
+        <v>0.3061358091373905</v>
+      </c>
+      <c r="P16">
+        <v>0.2272837733808414</v>
+      </c>
+      <c r="Q16">
+        <v>212.089214255785</v>
+      </c>
+      <c r="R16">
+        <v>848.3568570231399</v>
+      </c>
+      <c r="S16">
+        <v>0.2709182127537083</v>
+      </c>
+      <c r="T16">
+        <v>0.1901971871600551</v>
       </c>
     </row>
   </sheetData>
